--- a/cypress/test-cases/signup-test-case.xlsx
+++ b/cypress/test-cases/signup-test-case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sakib-personal-workspace\manatal-test-automation\cypress\test-cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A4CE4F-F4A6-473C-8913-55B0A8EC14F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B597549-6BAC-4C29-B7CA-50B8859DCBDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Signup_Test_Cases" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="71">
   <si>
     <t>Test Case of Manatal Sign Up Process</t>
   </si>
@@ -102,28 +102,2069 @@
     <t>Test_Case_100014</t>
   </si>
   <si>
-    <t>Verify all the input fields, buttons and links are beign displayed in signup page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Nagvigate to </t>
+    <t>Md. Sakibur Rahman</t>
+  </si>
+  <si>
+    <t>1. Nagvigate to https://jb-app-frontend-staging.herokuapp.com/signup/
+2. Obserbe the page title</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. The signup page should load
+2. The page header should be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Start Your Free Trial
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">14-day free trial and no credit card required. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>should be present just below the Header</t>
+    </r>
+  </si>
+  <si>
+    <t>Verify the trial infromation present in signup page</t>
+  </si>
+  <si>
+    <t>Verify all the input fields, buttons and links are beign displayed signup page</t>
+  </si>
+  <si>
+    <t>1. Nagvigate to https://jb-app-frontend-staging.herokuapp.com/signup/
+2. Obserbe the input fields and button</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. The signup page should load
+2. The following input fields should be visible and accessable 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">input field, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Organization Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> input field, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I work For</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> radio button, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Company Email Address</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> input field, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Confirm Company Email Address</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> input field, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> input field, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Country code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> selector dropdown, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Phone Number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> input field, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I agree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Checkbox
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>privacy policy, terms and conditions, Log in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> link should be visible and accessable
+4. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SIGN UP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button should be visible
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Verify all the required fields have asterisk sign</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Nagvigate to https://jb-app-frontend-staging.herokuapp.com/signup/
+2. Obserbe the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> input field's label
+3. Obserbe the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Organization Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> input field's label
+4. Obserbe the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Company Email Address</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> input field's label
+5. Obserbe the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Confirm Company Email Address</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> input field's label
+6. Obserbe the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> input field's label</t>
+    </r>
+  </si>
+  <si>
+    <t>Check that the required fields of the signup form behave as expected</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Nagvigate to https://jb-app-frontend-staging.herokuapp.com/signup/
+2. Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SIGN UP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. The signup page should load
+2. The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> required input fields border should be turn into red color and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The name field is required</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> red colored error message should appear
+3. The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Orbanization Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> required input fields border should be turn into red color and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The organization name field is required</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> red colored error message should appear
+4. The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Company Email Address</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> required input fields border should be turn into red color and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The company email address field is required</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> red colored error message should appear</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">5. The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Confirm Company Email Address</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> required input fields border should be turn into red color and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The confirm company email address field is required</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> red colored error message should appear
+6. The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> input fields border should be turn into red color and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The password field is required</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> red colored error message should appear</t>
+    </r>
+  </si>
+  <si>
+    <t>Verify that name length must not be more than 255 characters</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. The signup page should load
+2. The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> required input fields border should be turn into red color and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The name field may not be greater than 255 characters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> red colored error message should appear</t>
+    </r>
+  </si>
+  <si>
+    <t>Verify that organization name length must not be more than 255 characters</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. The signup page should load
+2. The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Organization</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> required input fields border should be turn into red color and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The organization name field may not be greater than 255 characters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> red colored error message should appear</t>
+    </r>
+  </si>
+  <si>
+    <t>Verify that email address must be valid</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Nagvigate to https://jb-app-frontend-staging.herokuapp.com/signup/
+2.  Input a name in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> input Field
+3.  Input a organization name in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Organization Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> input Field
+4. Input a alphanemeric value for example dfg23@, 23!@d., fki_32@.c etc in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Company Email Address</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> input fields</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. The signup page should load
+2. The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Company Email Address</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> required input fields border should be turn into red color and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The email address field must be a valid email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> red colored error message should appear</t>
+    </r>
+  </si>
+  <si>
+    <t>Verify that email length must not be more than 254 characters</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. The signup page should load
+2. The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Company Email Address</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> required input fields border should be turn into red color and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The company email address field may not be greater than 254 characters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> red colored error message should appear</t>
+    </r>
+  </si>
+  <si>
+    <t>Verify that company email address and confirm compnay email address must match</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Nagvigate to https://jb-app-frontend-staging.herokuapp.com/signup/
+2.  Input a name in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> input Field
+3.  Input a organization name in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Organization Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> input Field
+4. Input email address in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Company Email Address</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> input field with 256 character length</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Nagvigate to https://jb-app-frontend-staging.herokuapp.com/signup/
+2. Input a name in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> input Field
+3. Input organization name in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Organization Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> input field with 256 character length</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Nagvigate to https://jb-app-frontend-staging.herokuapp.com/signup/
+2. Input name in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> input field with 256 character length</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. The signup page should load
+2. The mentioned required input fields should  have </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>asterics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sign</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Nagvigate to https://jb-app-frontend-staging.herokuapp.com/signup/
+2.  Input a name in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> input Field
+3.  Input a organization name in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Organization Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> input Field
+4. Input email address in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Company Email Address</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> input field
+5. Input a differnt email  address in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Confirm Company Email Address</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> input field</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. The signup page should load
+2. The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Confirm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Company Email Address</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> required input fields border should be turn into red color and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The confirm company email address confirmation does not match</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> red colored error message should appear</t>
+    </r>
+  </si>
+  <si>
+    <t>Verify that password length must not be more than 254 characters</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Nagvigate to https://jb-app-frontend-staging.herokuapp.com/signup/
+2.  Input a name in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> input Field
+3.  Input a organization name in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Organization Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> input Field
+4. Input email address in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Company Email Address</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> input field
+5. Input same email  address in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Confirm Company Email Address</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> input field
+6. Input password in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> input field with 256 character length </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. The signup page should load
+2. The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> required input fields border should be turn into red color and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The password field may not be greater than 255 characters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> red colored error message should appear</t>
+    </r>
+  </si>
+  <si>
+    <t>Verify that invalid phone number does not accepted</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Nagvigate to https://jb-app-frontend-staging.herokuapp.com/signup/
+2.  Input a name in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> input Field
+3.  Input a organization name in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Organization Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> input Field
+4. Input email address in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Company Email Address</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> input field
+5. Input same email  address in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Confirm Company Email Address</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> input field
+6. Input password in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> input field
+7.  Input phone number in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Phone Number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> input field with more than 11 digit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. The signup page should load
+2. The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Phone Number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> required input fields border should be turn into red color and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Enter a valid phone number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> red colored error message should appear</t>
+    </r>
+  </si>
+  <si>
+    <t>Verify that phone number length must not be more than 11 characters</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. The signup page should load
+2. The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Phone Number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> required input fields should not accept any character except number. </t>
+    </r>
+  </si>
+  <si>
+    <t>Test_Case_100015</t>
+  </si>
+  <si>
+    <t>Check that the privacy policy &amp; terms and conditions is required to submit the form</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Repeate Test Steps 1 to 6 from test case no Test_Case_1000011
+2. Now try to Input alphanumeric and special character value in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Phone Number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> input field</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Repeate Test Steps 1 to 7 from test case no Test_Case_1000011
+2. Now Input phone number in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Phone Number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> input field with more than 20 digit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Repeate Test Steps 1 to 6 from test case no Test_Case_1000011
+2. Select a county code from phone number input field
+3. Now input a valid phone number in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Phone Number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> input field
+4. Click on the submit button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. The signup page should load
+2.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The agree field is required</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> red colored error message should appear just below the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I Agree to privacy and terms and conditions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> checkbox</t>
+    </r>
+  </si>
+  <si>
+    <t>Check that the "confirm your email-address" page is displayed after the form submission and includes the email address added by the user in the sign up form</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Repeate Test Steps 1 to 6 from test case no Test_Case_1000011
+2. Select a county code from phone number input field
+3. Now input a valid phone number in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Phone Number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> input field
+4. Select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Company</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Radio Button
+4. Check the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I Agree to privacy and terms and conditions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> checkbox
+4. Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SIGN UP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. The signup page should load
+2. The radio button should be selected
+3. After clicking on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SIGN UP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Comfirm your email address</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> page should be dispalyed
+3. The added/registered email addess should appear in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Comfirm your email address</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> page</t>
+    </r>
+  </si>
+  <si>
+    <t>Last Updated: 25th January 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -134,8 +2175,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,7 +2217,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -161,17 +2240,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,181 +2538,372 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J21"/>
+  <dimension ref="A2:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
     <col min="4" max="4" width="72" customWidth="1"/>
-    <col min="5" max="6" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="49.42578125" customWidth="1"/>
+    <col min="6" max="6" width="48.7109375" customWidth="1"/>
     <col min="7" max="7" width="18.140625" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="39.42578125" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F2" t="s">
+    <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="D2" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D3" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="255" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="285" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="C20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>15</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <mergeCells count="1">
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>